--- a/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="186">
   <si>
     <t>Serie</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y175"/>
+  <dimension ref="A1:Y176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14181,7 +14184,7 @@
         <v>182</v>
       </c>
       <c r="B173">
-        <v>303242</v>
+        <v>303238</v>
       </c>
       <c r="C173">
         <v>2863</v>
@@ -14193,16 +14196,16 @@
         <v>49189</v>
       </c>
       <c r="F173">
-        <v>28320</v>
+        <v>28708</v>
       </c>
       <c r="G173">
-        <v>43183</v>
+        <v>42914</v>
       </c>
       <c r="H173">
-        <v>32769</v>
+        <v>32869</v>
       </c>
       <c r="I173">
-        <v>121850</v>
+        <v>121627</v>
       </c>
       <c r="J173">
         <v>71275</v>
@@ -14229,7 +14232,7 @@
         <v>33316</v>
       </c>
       <c r="R173">
-        <v>231967</v>
+        <v>231964</v>
       </c>
       <c r="S173">
         <v>2249</v>
@@ -14241,16 +14244,16 @@
         <v>39036</v>
       </c>
       <c r="V173">
-        <v>24047</v>
+        <v>24435</v>
       </c>
       <c r="W173">
-        <v>35226</v>
+        <v>34957</v>
       </c>
       <c r="X173">
-        <v>24623</v>
+        <v>24723</v>
       </c>
       <c r="Y173">
-        <v>88534</v>
+        <v>88311</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -14258,7 +14261,7 @@
         <v>183</v>
       </c>
       <c r="B174">
-        <v>299490</v>
+        <v>299480</v>
       </c>
       <c r="C174">
         <v>2716</v>
@@ -14267,19 +14270,19 @@
         <v>20606</v>
       </c>
       <c r="E174">
-        <v>53243</v>
+        <v>53456</v>
       </c>
       <c r="F174">
-        <v>30523</v>
+        <v>30953</v>
       </c>
       <c r="G174">
-        <v>41934</v>
+        <v>41406</v>
       </c>
       <c r="H174">
-        <v>32571</v>
+        <v>32671</v>
       </c>
       <c r="I174">
-        <v>117897</v>
+        <v>117672</v>
       </c>
       <c r="J174">
         <v>62476</v>
@@ -14306,7 +14309,7 @@
         <v>28417</v>
       </c>
       <c r="R174">
-        <v>237014</v>
+        <v>237004</v>
       </c>
       <c r="S174">
         <v>2064</v>
@@ -14315,19 +14318,19 @@
         <v>15580</v>
       </c>
       <c r="U174">
-        <v>42739</v>
+        <v>42953</v>
       </c>
       <c r="V174">
-        <v>26374</v>
+        <v>26804</v>
       </c>
       <c r="W174">
-        <v>34827</v>
+        <v>34298</v>
       </c>
       <c r="X174">
-        <v>25950</v>
+        <v>26050</v>
       </c>
       <c r="Y174">
-        <v>89480</v>
+        <v>89255</v>
       </c>
     </row>
     <row r="175" spans="1:25">
@@ -14335,28 +14338,28 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <v>286032</v>
+        <v>286021</v>
       </c>
       <c r="C175">
         <v>2031</v>
       </c>
       <c r="D175">
-        <v>19364</v>
+        <v>19623</v>
       </c>
       <c r="E175">
-        <v>40751</v>
+        <v>41505</v>
       </c>
       <c r="F175">
-        <v>29666</v>
+        <v>29600</v>
       </c>
       <c r="G175">
-        <v>43184</v>
+        <v>42614</v>
       </c>
       <c r="H175">
-        <v>32952</v>
+        <v>32794</v>
       </c>
       <c r="I175">
-        <v>118083</v>
+        <v>117854</v>
       </c>
       <c r="J175">
         <v>59032</v>
@@ -14383,28 +14386,105 @@
         <v>27915</v>
       </c>
       <c r="R175">
-        <v>227000</v>
+        <v>226989</v>
       </c>
       <c r="S175">
         <v>1546</v>
       </c>
       <c r="T175">
-        <v>14698</v>
+        <v>14957</v>
       </c>
       <c r="U175">
-        <v>32144</v>
+        <v>32898</v>
       </c>
       <c r="V175">
-        <v>25516</v>
+        <v>25450</v>
       </c>
       <c r="W175">
-        <v>36295</v>
+        <v>35726</v>
       </c>
       <c r="X175">
-        <v>26631</v>
+        <v>26472</v>
       </c>
       <c r="Y175">
-        <v>90169</v>
+        <v>89939</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25">
+      <c r="A176" t="s">
+        <v>185</v>
+      </c>
+      <c r="B176">
+        <v>278745</v>
+      </c>
+      <c r="C176">
+        <v>2846</v>
+      </c>
+      <c r="D176">
+        <v>12156</v>
+      </c>
+      <c r="E176">
+        <v>40676</v>
+      </c>
+      <c r="F176">
+        <v>28325</v>
+      </c>
+      <c r="G176">
+        <v>42119</v>
+      </c>
+      <c r="H176">
+        <v>34157</v>
+      </c>
+      <c r="I176">
+        <v>118466</v>
+      </c>
+      <c r="J176">
+        <v>56351</v>
+      </c>
+      <c r="K176">
+        <v>682</v>
+      </c>
+      <c r="L176">
+        <v>3462</v>
+      </c>
+      <c r="M176">
+        <v>7802</v>
+      </c>
+      <c r="N176">
+        <v>3605</v>
+      </c>
+      <c r="O176">
+        <v>6484</v>
+      </c>
+      <c r="P176">
+        <v>6875</v>
+      </c>
+      <c r="Q176">
+        <v>27441</v>
+      </c>
+      <c r="R176">
+        <v>222394</v>
+      </c>
+      <c r="S176">
+        <v>2164</v>
+      </c>
+      <c r="T176">
+        <v>8694</v>
+      </c>
+      <c r="U176">
+        <v>32873</v>
+      </c>
+      <c r="V176">
+        <v>24720</v>
+      </c>
+      <c r="W176">
+        <v>35635</v>
+      </c>
+      <c r="X176">
+        <v>27282</v>
+      </c>
+      <c r="Y176">
+        <v>91025</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
   <si>
     <t>Serie</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y176"/>
+  <dimension ref="A1:Y177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14487,6 +14490,17 @@
         <v>91025</v>
       </c>
     </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177">
+        <v>283094</v>
+      </c>
+      <c r="J177">
+        <v>56804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
@@ -14264,7 +14264,7 @@
         <v>183</v>
       </c>
       <c r="B174">
-        <v>299480</v>
+        <v>299466</v>
       </c>
       <c r="C174">
         <v>2716</v>
@@ -14273,22 +14273,22 @@
         <v>20606</v>
       </c>
       <c r="E174">
-        <v>53456</v>
+        <v>53461</v>
       </c>
       <c r="F174">
-        <v>30953</v>
+        <v>31923</v>
       </c>
       <c r="G174">
-        <v>41406</v>
+        <v>40750</v>
       </c>
       <c r="H174">
-        <v>32671</v>
+        <v>32530</v>
       </c>
       <c r="I174">
-        <v>117672</v>
+        <v>117480</v>
       </c>
       <c r="J174">
-        <v>62476</v>
+        <v>62522</v>
       </c>
       <c r="K174">
         <v>652</v>
@@ -14306,13 +14306,13 @@
         <v>7107</v>
       </c>
       <c r="P174">
-        <v>6621</v>
+        <v>6651</v>
       </c>
       <c r="Q174">
-        <v>28417</v>
+        <v>28433</v>
       </c>
       <c r="R174">
-        <v>237004</v>
+        <v>236944</v>
       </c>
       <c r="S174">
         <v>2064</v>
@@ -14321,19 +14321,19 @@
         <v>15580</v>
       </c>
       <c r="U174">
-        <v>42953</v>
+        <v>42957</v>
       </c>
       <c r="V174">
-        <v>26804</v>
+        <v>27774</v>
       </c>
       <c r="W174">
-        <v>34298</v>
+        <v>33642</v>
       </c>
       <c r="X174">
-        <v>26050</v>
+        <v>25880</v>
       </c>
       <c r="Y174">
-        <v>89255</v>
+        <v>89048</v>
       </c>
     </row>
     <row r="175" spans="1:25">
@@ -14341,7 +14341,7 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <v>286021</v>
+        <v>286057</v>
       </c>
       <c r="C175">
         <v>2031</v>
@@ -14350,22 +14350,22 @@
         <v>19623</v>
       </c>
       <c r="E175">
-        <v>41505</v>
+        <v>41735</v>
       </c>
       <c r="F175">
-        <v>29600</v>
+        <v>30558</v>
       </c>
       <c r="G175">
-        <v>42614</v>
+        <v>41906</v>
       </c>
       <c r="H175">
-        <v>32794</v>
+        <v>32644</v>
       </c>
       <c r="I175">
-        <v>117854</v>
+        <v>117559</v>
       </c>
       <c r="J175">
-        <v>59032</v>
+        <v>59078</v>
       </c>
       <c r="K175">
         <v>484</v>
@@ -14383,13 +14383,13 @@
         <v>6888</v>
       </c>
       <c r="P175">
-        <v>6321</v>
+        <v>6351</v>
       </c>
       <c r="Q175">
-        <v>27915</v>
+        <v>27930</v>
       </c>
       <c r="R175">
-        <v>226989</v>
+        <v>226979</v>
       </c>
       <c r="S175">
         <v>1546</v>
@@ -14398,19 +14398,19 @@
         <v>14957</v>
       </c>
       <c r="U175">
-        <v>32898</v>
+        <v>33128</v>
       </c>
       <c r="V175">
-        <v>25450</v>
+        <v>26408</v>
       </c>
       <c r="W175">
-        <v>35726</v>
+        <v>35018</v>
       </c>
       <c r="X175">
-        <v>26472</v>
+        <v>26293</v>
       </c>
       <c r="Y175">
-        <v>89939</v>
+        <v>89629</v>
       </c>
     </row>
     <row r="176" spans="1:25">
@@ -14418,31 +14418,31 @@
         <v>185</v>
       </c>
       <c r="B176">
-        <v>278745</v>
+        <v>278789</v>
       </c>
       <c r="C176">
         <v>2846</v>
       </c>
       <c r="D176">
-        <v>12156</v>
+        <v>12270</v>
       </c>
       <c r="E176">
-        <v>40676</v>
+        <v>41157</v>
       </c>
       <c r="F176">
-        <v>28325</v>
+        <v>29084</v>
       </c>
       <c r="G176">
-        <v>42119</v>
+        <v>41305</v>
       </c>
       <c r="H176">
-        <v>34157</v>
+        <v>33955</v>
       </c>
       <c r="I176">
-        <v>118466</v>
+        <v>118171</v>
       </c>
       <c r="J176">
-        <v>56351</v>
+        <v>56397</v>
       </c>
       <c r="K176">
         <v>682</v>
@@ -14460,45 +14460,111 @@
         <v>6484</v>
       </c>
       <c r="P176">
-        <v>6875</v>
+        <v>6905</v>
       </c>
       <c r="Q176">
-        <v>27441</v>
+        <v>27456</v>
       </c>
       <c r="R176">
-        <v>222394</v>
+        <v>222392</v>
       </c>
       <c r="S176">
         <v>2164</v>
       </c>
       <c r="T176">
-        <v>8694</v>
+        <v>8808</v>
       </c>
       <c r="U176">
-        <v>32873</v>
+        <v>33354</v>
       </c>
       <c r="V176">
-        <v>24720</v>
+        <v>25479</v>
       </c>
       <c r="W176">
-        <v>35635</v>
+        <v>34822</v>
       </c>
       <c r="X176">
-        <v>27282</v>
+        <v>27050</v>
       </c>
       <c r="Y176">
-        <v>91025</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+        <v>90715</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25">
       <c r="A177" t="s">
         <v>186</v>
       </c>
       <c r="B177">
-        <v>283094</v>
+        <v>283152</v>
+      </c>
+      <c r="C177">
+        <v>2119</v>
+      </c>
+      <c r="D177">
+        <v>16986</v>
+      </c>
+      <c r="E177">
+        <v>42215</v>
+      </c>
+      <c r="F177">
+        <v>27974</v>
+      </c>
+      <c r="G177">
+        <v>41757</v>
+      </c>
+      <c r="H177">
+        <v>32924</v>
+      </c>
+      <c r="I177">
+        <v>119177</v>
       </c>
       <c r="J177">
-        <v>56804</v>
+        <v>56850</v>
+      </c>
+      <c r="K177">
+        <v>264</v>
+      </c>
+      <c r="L177">
+        <v>3561</v>
+      </c>
+      <c r="M177">
+        <v>8979</v>
+      </c>
+      <c r="N177">
+        <v>3595</v>
+      </c>
+      <c r="O177">
+        <v>6496</v>
+      </c>
+      <c r="P177">
+        <v>6584</v>
+      </c>
+      <c r="Q177">
+        <v>27371</v>
+      </c>
+      <c r="R177">
+        <v>226302</v>
+      </c>
+      <c r="S177">
+        <v>1855</v>
+      </c>
+      <c r="T177">
+        <v>13425</v>
+      </c>
+      <c r="U177">
+        <v>33236</v>
+      </c>
+      <c r="V177">
+        <v>24379</v>
+      </c>
+      <c r="W177">
+        <v>35261</v>
+      </c>
+      <c r="X177">
+        <v>26340</v>
+      </c>
+      <c r="Y177">
+        <v>91806</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y177"/>
+  <dimension ref="A1:Y178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14567,6 +14570,17 @@
         <v>91806</v>
       </c>
     </row>
+    <row r="178" spans="1:25">
+      <c r="A178" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178">
+        <v>293229</v>
+      </c>
+      <c r="J178">
+        <v>59801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
@@ -14344,7 +14344,7 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <v>286057</v>
+        <v>286162</v>
       </c>
       <c r="C175">
         <v>2031</v>
@@ -14356,19 +14356,19 @@
         <v>41735</v>
       </c>
       <c r="F175">
-        <v>30558</v>
+        <v>31178</v>
       </c>
       <c r="G175">
-        <v>41906</v>
+        <v>41690</v>
       </c>
       <c r="H175">
-        <v>32644</v>
+        <v>32467</v>
       </c>
       <c r="I175">
-        <v>117559</v>
+        <v>117437</v>
       </c>
       <c r="J175">
-        <v>59078</v>
+        <v>59118</v>
       </c>
       <c r="K175">
         <v>484</v>
@@ -14389,10 +14389,10 @@
         <v>6351</v>
       </c>
       <c r="Q175">
-        <v>27930</v>
+        <v>27970</v>
       </c>
       <c r="R175">
-        <v>226979</v>
+        <v>227044</v>
       </c>
       <c r="S175">
         <v>1546</v>
@@ -14401,19 +14401,19 @@
         <v>14957</v>
       </c>
       <c r="U175">
-        <v>33128</v>
+        <v>33129</v>
       </c>
       <c r="V175">
-        <v>26408</v>
+        <v>27027</v>
       </c>
       <c r="W175">
-        <v>35018</v>
+        <v>34802</v>
       </c>
       <c r="X175">
-        <v>26293</v>
+        <v>26116</v>
       </c>
       <c r="Y175">
-        <v>89629</v>
+        <v>89466</v>
       </c>
     </row>
     <row r="176" spans="1:25">
@@ -14421,7 +14421,7 @@
         <v>185</v>
       </c>
       <c r="B176">
-        <v>278789</v>
+        <v>278894</v>
       </c>
       <c r="C176">
         <v>2846</v>
@@ -14430,22 +14430,22 @@
         <v>12270</v>
       </c>
       <c r="E176">
-        <v>41157</v>
+        <v>41498</v>
       </c>
       <c r="F176">
-        <v>29084</v>
+        <v>29735</v>
       </c>
       <c r="G176">
-        <v>41305</v>
+        <v>41044</v>
       </c>
       <c r="H176">
-        <v>33955</v>
+        <v>33478</v>
       </c>
       <c r="I176">
-        <v>118171</v>
+        <v>118023</v>
       </c>
       <c r="J176">
-        <v>56397</v>
+        <v>56437</v>
       </c>
       <c r="K176">
         <v>682</v>
@@ -14466,10 +14466,10 @@
         <v>6905</v>
       </c>
       <c r="Q176">
-        <v>27456</v>
+        <v>27496</v>
       </c>
       <c r="R176">
-        <v>222392</v>
+        <v>222457</v>
       </c>
       <c r="S176">
         <v>2164</v>
@@ -14478,19 +14478,19 @@
         <v>8808</v>
       </c>
       <c r="U176">
-        <v>33354</v>
+        <v>33695</v>
       </c>
       <c r="V176">
-        <v>25479</v>
+        <v>26130</v>
       </c>
       <c r="W176">
-        <v>34822</v>
+        <v>34560</v>
       </c>
       <c r="X176">
-        <v>27050</v>
+        <v>26573</v>
       </c>
       <c r="Y176">
-        <v>90715</v>
+        <v>90527</v>
       </c>
     </row>
     <row r="177" spans="1:25">
@@ -14498,31 +14498,31 @@
         <v>186</v>
       </c>
       <c r="B177">
-        <v>283152</v>
+        <v>283253</v>
       </c>
       <c r="C177">
         <v>2119</v>
       </c>
       <c r="D177">
-        <v>16986</v>
+        <v>17102</v>
       </c>
       <c r="E177">
-        <v>42215</v>
+        <v>42925</v>
       </c>
       <c r="F177">
-        <v>27974</v>
+        <v>28329</v>
       </c>
       <c r="G177">
-        <v>41757</v>
+        <v>41410</v>
       </c>
       <c r="H177">
-        <v>32924</v>
+        <v>32338</v>
       </c>
       <c r="I177">
-        <v>119177</v>
+        <v>119030</v>
       </c>
       <c r="J177">
-        <v>56850</v>
+        <v>56890</v>
       </c>
       <c r="K177">
         <v>264</v>
@@ -14543,31 +14543,31 @@
         <v>6584</v>
       </c>
       <c r="Q177">
-        <v>27371</v>
+        <v>27411</v>
       </c>
       <c r="R177">
-        <v>226302</v>
+        <v>226363</v>
       </c>
       <c r="S177">
         <v>1855</v>
       </c>
       <c r="T177">
-        <v>13425</v>
+        <v>13541</v>
       </c>
       <c r="U177">
-        <v>33236</v>
+        <v>33946</v>
       </c>
       <c r="V177">
-        <v>24379</v>
+        <v>24734</v>
       </c>
       <c r="W177">
-        <v>35261</v>
+        <v>34914</v>
       </c>
       <c r="X177">
-        <v>26340</v>
+        <v>25754</v>
       </c>
       <c r="Y177">
-        <v>91806</v>
+        <v>91619</v>
       </c>
     </row>
     <row r="178" spans="1:25">
@@ -14575,10 +14575,76 @@
         <v>187</v>
       </c>
       <c r="B178">
-        <v>293229</v>
+        <v>293223</v>
+      </c>
+      <c r="C178">
+        <v>2720</v>
+      </c>
+      <c r="D178">
+        <v>21173</v>
+      </c>
+      <c r="E178">
+        <v>43099</v>
+      </c>
+      <c r="F178">
+        <v>28518</v>
+      </c>
+      <c r="G178">
+        <v>41394</v>
+      </c>
+      <c r="H178">
+        <v>36203</v>
+      </c>
+      <c r="I178">
+        <v>120116</v>
       </c>
       <c r="J178">
         <v>59801</v>
+      </c>
+      <c r="K178">
+        <v>393</v>
+      </c>
+      <c r="L178">
+        <v>5364</v>
+      </c>
+      <c r="M178">
+        <v>8867</v>
+      </c>
+      <c r="N178">
+        <v>4452</v>
+      </c>
+      <c r="O178">
+        <v>6063</v>
+      </c>
+      <c r="P178">
+        <v>7688</v>
+      </c>
+      <c r="Q178">
+        <v>26975</v>
+      </c>
+      <c r="R178">
+        <v>233422</v>
+      </c>
+      <c r="S178">
+        <v>2327</v>
+      </c>
+      <c r="T178">
+        <v>15809</v>
+      </c>
+      <c r="U178">
+        <v>34231</v>
+      </c>
+      <c r="V178">
+        <v>24066</v>
+      </c>
+      <c r="W178">
+        <v>35331</v>
+      </c>
+      <c r="X178">
+        <v>28515</v>
+      </c>
+      <c r="Y178">
+        <v>93141</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/2/1/Derivados posiciones totales por plazo original 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="189">
   <si>
     <t>Serie</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y178"/>
+  <dimension ref="A1:Y179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14647,6 +14650,17 @@
         <v>93141</v>
       </c>
     </row>
+    <row r="179" spans="1:25">
+      <c r="A179" t="s">
+        <v>188</v>
+      </c>
+      <c r="B179">
+        <v>292430</v>
+      </c>
+      <c r="J179">
+        <v>59898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
